--- a/ENGLISH/READING FILE/RAPPORT/Vocabulary.xlsx
+++ b/ENGLISH/READING FILE/RAPPORT/Vocabulary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="266">
   <si>
     <t>WORD</t>
   </si>
@@ -138,9 +138,6 @@
     <t>used for a video game</t>
   </si>
   <si>
-    <t>tinker with something</t>
-  </si>
-  <si>
     <t>district-wide</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>What types of video games improve brain function ?</t>
   </si>
   <si>
-    <t>used in "large amount of clutter"</t>
-  </si>
-  <si>
     <t>embody something</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>interplay</t>
   </si>
   <si>
-    <t>used in "an interplay of genetic"</t>
-  </si>
-  <si>
     <t>Inflammation in the brain is linked to risk of schizophrenia, study finds</t>
   </si>
   <si>
@@ -234,15 +225,9 @@
     <t>extraneous</t>
   </si>
   <si>
-    <t>"extraneous content"</t>
-  </si>
-  <si>
     <t>transient</t>
   </si>
   <si>
-    <t>"either transient or oscillatory"</t>
-  </si>
-  <si>
     <t>steady-state</t>
   </si>
   <si>
@@ -258,9 +243,6 @@
     <t>neurites</t>
   </si>
   <si>
-    <t>in the brain</t>
-  </si>
-  <si>
     <t>brainstem</t>
   </si>
   <si>
@@ -270,32 +252,588 @@
     <t>bulk</t>
   </si>
   <si>
-    <t>"the bulk of work"</t>
-  </si>
-  <si>
     <t>strides</t>
   </si>
   <si>
-    <t>"great strides have been made"</t>
-  </si>
-  <si>
     <t>incentive</t>
   </si>
   <si>
     <t>entail</t>
   </si>
   <si>
-    <t>entail something</t>
-  </si>
-  <si>
-    <t>not an adjective!</t>
+    <t>comply</t>
+  </si>
+  <si>
+    <t>comply with somthing</t>
+  </si>
+  <si>
+    <t>embracing</t>
+  </si>
+  <si>
+    <t>off-the-shelf</t>
+  </si>
+  <si>
+    <t>embracing something</t>
+  </si>
+  <si>
+    <t>tailor-made</t>
+  </si>
+  <si>
+    <t>used in "off-the-shelf games"</t>
+  </si>
+  <si>
+    <t>undergo</t>
+  </si>
+  <si>
+    <t>undergo something</t>
+  </si>
+  <si>
+    <t>aversive</t>
+  </si>
+  <si>
+    <t>broadened</t>
+  </si>
+  <si>
+    <t>broader</t>
+  </si>
+  <si>
+    <t>used in "the market broadened"</t>
+  </si>
+  <si>
+    <t>adjunct</t>
+  </si>
+  <si>
+    <t>hand crank</t>
+  </si>
+  <si>
+    <t>forth</t>
+  </si>
+  <si>
+    <t>used in "set forth"</t>
+  </si>
+  <si>
+    <t>"add-on exercise hand crank device"</t>
+  </si>
+  <si>
+    <t>exertion</t>
+  </si>
+  <si>
+    <t>expenditure</t>
+  </si>
+  <si>
+    <t>used in "perceptions of exertion levels"</t>
+  </si>
+  <si>
+    <t>used in "energy expenditure"</t>
+  </si>
+  <si>
+    <t>compliance</t>
+  </si>
+  <si>
+    <t>see the verb comply above</t>
+  </si>
+  <si>
+    <t>bladder</t>
+  </si>
+  <si>
+    <t>bower</t>
+  </si>
+  <si>
+    <t>voiding</t>
+  </si>
+  <si>
+    <t>in the context : "bladder dysfunction"</t>
+  </si>
+  <si>
+    <t>in the context : "bowel dysfunction"</t>
+  </si>
+  <si>
+    <t>vessie</t>
+  </si>
+  <si>
+    <t>gros intestin, côlon</t>
+  </si>
+  <si>
+    <t>bloating</t>
+  </si>
+  <si>
+    <t>vider</t>
+  </si>
+  <si>
+    <t>ballonnements</t>
+  </si>
+  <si>
+    <t>to bloat = gonfler</t>
+  </si>
+  <si>
+    <t>counterparts</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>never seen</t>
+  </si>
+  <si>
+    <t>endeavor</t>
+  </si>
+  <si>
+    <t>effort, tentative</t>
+  </si>
+  <si>
+    <t>Video games in Health Care: Closing the gap</t>
+  </si>
+  <si>
+    <t>[oh-puh n-en-did]</t>
+  </si>
+  <si>
+    <t>not having fixed limits, unrestricted, broad</t>
+  </si>
+  <si>
+    <t>illimité</t>
+  </si>
+  <si>
+    <t>[ting-ker]</t>
+  </si>
+  <si>
+    <t>to mend as a tinker, to repair in an unskillful, clumsy, or makeshift way</t>
+  </si>
+  <si>
+    <t>bricoler avec quelque chose</t>
+  </si>
+  <si>
+    <t>can be a noun</t>
+  </si>
+  <si>
+    <t>can be a verb</t>
+  </si>
+  <si>
+    <t>tinker with something, can be tinker something or a noun</t>
+  </si>
+  <si>
+    <t>[kluht-er]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[dis-trikt-wahyd] </t>
+  </si>
+  <si>
+    <t>a disorderly heap or assemblage, litter, a state or condition of confusion, confused noise, clatter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[em-bod-ee] </t>
+  </si>
+  <si>
+    <t>to give a concret form to, express, personify, or exemplify in concret form</t>
+  </si>
+  <si>
+    <t>incarner, symboliser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[proon] </t>
+  </si>
+  <si>
+    <t>to cut or lop off, to rid or clear of, to remove</t>
+  </si>
+  <si>
+    <t>tailler</t>
+  </si>
+  <si>
+    <t>[in-ter-pley]</t>
+  </si>
+  <si>
+    <t>reciprocal relationship, action, or influence</t>
+  </si>
+  <si>
+    <t>interaction</t>
+  </si>
+  <si>
+    <t>fouillis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[shed] </t>
+  </si>
+  <si>
+    <t>to impart or release, give or send forth</t>
+  </si>
+  <si>
+    <t>faire la lumière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[uhn-der-lahy] </t>
+  </si>
+  <si>
+    <t>to lie under or beneath, be situated under</t>
+  </si>
+  <si>
+    <t>être à la base de, sous-tendre</t>
+  </si>
+  <si>
+    <t>paralysie cérébrale</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">noun, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pathology</t>
+    </r>
+  </si>
+  <si>
+    <t>a form of paralysis believed to be caused by a prenatal brain defect or by brain injury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[suh-ree-bruh l] [pawl-zee] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[mahyl-stohn] </t>
+  </si>
+  <si>
+    <t>a significant event or stage in the life, progress, development</t>
+  </si>
+  <si>
+    <t>étape importante</t>
+  </si>
+  <si>
+    <t>[sen-suh-ree-moh-ter]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">both sensory and motor rhythms, as parts of the cerebral cortex. </t>
+  </si>
+  <si>
+    <t>rythmes sensori-moteurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[peer] [ri-vyoo] </t>
+  </si>
+  <si>
+    <t>examiné par des pairs</t>
+  </si>
+  <si>
+    <t>checked by a group for experts in the same field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[kuhm-ber-suh m] </t>
+  </si>
+  <si>
+    <t>troublesome, clumsy</t>
+  </si>
+  <si>
+    <t>lourd</t>
+  </si>
+  <si>
+    <t>début</t>
+  </si>
+  <si>
+    <t>[on-set]</t>
+  </si>
+  <si>
+    <t>a beginning or start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ik-strey-nee-uh s] </t>
+  </si>
+  <si>
+    <t>introduced or coming from without, not belonging proper to a thing, external, foreign, not pertinent, irrelevant</t>
+  </si>
+  <si>
+    <t>"extraneous content" : irrelevant</t>
+  </si>
+  <si>
+    <t>étranger, superflu, sans grande portée</t>
+  </si>
+  <si>
+    <t>[tran-shuh nt</t>
+  </si>
+  <si>
+    <t>not lasting, enduring, or permanent, transitory</t>
+  </si>
+  <si>
+    <t>transitoire</t>
+  </si>
+  <si>
+    <t>état d'équilibre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[sted-ee][steyt] </t>
+  </si>
+  <si>
+    <t>a state or condition of a system or process that does not change in time, broadly</t>
+  </si>
+  <si>
+    <t>[oh-vurt]</t>
+  </si>
+  <si>
+    <t>open to view or knowledge, not concealed or secret</t>
+  </si>
+  <si>
+    <t>déclaré</t>
+  </si>
+  <si>
+    <t>refer to any projection from cell body of a neuron</t>
+  </si>
+  <si>
+    <t>axone</t>
+  </si>
+  <si>
+    <t>deprecated ?</t>
+  </si>
+  <si>
+    <t>tronc cérébral</t>
+  </si>
+  <si>
+    <t>[breyn-stem]</t>
+  </si>
+  <si>
+    <t>the portion of the brain that is continuous with the spinal cord</t>
+  </si>
+  <si>
+    <t>can be an adjective and a verb</t>
+  </si>
+  <si>
+    <t>[buhlk]</t>
+  </si>
+  <si>
+    <t>[nuh-rahyt]</t>
+  </si>
+  <si>
+    <t>a magnitude in three dimensions, the greater part, main mass or body</t>
+  </si>
+  <si>
+    <t>grosse partie</t>
+  </si>
+  <si>
+    <t>progrès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[strahyd] </t>
+  </si>
+  <si>
+    <t>a step forward in development or progress</t>
+  </si>
+  <si>
+    <t>[in-sen-tiv]</t>
+  </si>
+  <si>
+    <t>can be an adjective</t>
+  </si>
+  <si>
+    <t>something that incites or tends to incite to action or greater effort</t>
+  </si>
+  <si>
+    <t>motivation</t>
+  </si>
+  <si>
+    <t>entraîner</t>
+  </si>
+  <si>
+    <t>[en-teyl]</t>
+  </si>
+  <si>
+    <t>to cause or involve by necessity or as a consequence, to impose as a burden</t>
+  </si>
+  <si>
+    <t>se conformer</t>
+  </si>
+  <si>
+    <t>[kuh m-plahy]</t>
+  </si>
+  <si>
+    <t>to act or be in accordance with wishes, requests, demands…</t>
+  </si>
+  <si>
+    <t>[em-breys]</t>
+  </si>
+  <si>
+    <t>to take or clasp is the arms, to take or receive gladly, to adopt, to surround</t>
+  </si>
+  <si>
+    <t>embrasser, adopter</t>
+  </si>
+  <si>
+    <t>[awf-th uh-shelf]</t>
+  </si>
+  <si>
+    <t>readily available, made according to a standardized format, ready-made</t>
+  </si>
+  <si>
+    <t>dans le commerce</t>
+  </si>
+  <si>
+    <t>[tey-ler-meyd]</t>
+  </si>
+  <si>
+    <t>custom-made, made-to-order, tailored, fashioned to a particular taste, purpose, demand</t>
+  </si>
+  <si>
+    <t>sur mesure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[uhn-der-goh] </t>
+  </si>
+  <si>
+    <t>to be subjected to, experience, pass through, to endure</t>
+  </si>
+  <si>
+    <t>subir</t>
+  </si>
+  <si>
+    <t>aversif, dissuasif</t>
+  </si>
+  <si>
+    <t>[uh-vur-siv]</t>
+  </si>
+  <si>
+    <t>tending to dissuade or repel</t>
+  </si>
+  <si>
+    <t>[brawd-n]</t>
+  </si>
+  <si>
+    <t>élargir</t>
+  </si>
+  <si>
+    <t>to become or make broad, widen</t>
+  </si>
+  <si>
+    <t>can be an adverb or  a noun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[brawd] </t>
+  </si>
+  <si>
+    <t>of great extent, large, widely diffused, main or general</t>
+  </si>
+  <si>
+    <t>plus large</t>
+  </si>
+  <si>
+    <t>auxillaire</t>
+  </si>
+  <si>
+    <t>[aj-uhngkt]</t>
+  </si>
+  <si>
+    <t>something added to another thing but not essential to it</t>
+  </si>
+  <si>
+    <t>manivelle</t>
+  </si>
+  <si>
+    <t>a crank that is turne by hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[hand] [krangk] </t>
+  </si>
+  <si>
+    <t>[fawrth]</t>
+  </si>
+  <si>
+    <t>onward or outward in place or space, forward, into view of consideration</t>
+  </si>
+  <si>
+    <t>en avant</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ig-zur-shuh n] </t>
+  </si>
+  <si>
+    <t>effort, vigorous action, exercise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ik-spen-di-cher] </t>
+  </si>
+  <si>
+    <t>the act of expending something, especially funds, disbursement, consumption, something expanded, expense</t>
+  </si>
+  <si>
+    <t>dépense</t>
+  </si>
+  <si>
+    <t>conformité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[kuh m-plahy-uh ns] </t>
+  </si>
+  <si>
+    <t>the act of conforming, acquiescing, or yielding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[blad-er] </t>
+  </si>
+  <si>
+    <t>a membranous sac or organ serving as a receptacle for a fluid or air, urinary bladder</t>
+  </si>
+  <si>
+    <t>[bou-uh l]</t>
+  </si>
+  <si>
+    <t>a part of the intestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[void] </t>
+  </si>
+  <si>
+    <t>to empty, evacuate</t>
+  </si>
+  <si>
+    <t>in the context : "voiding dysfunction" = trouble mictionnel</t>
+  </si>
+  <si>
+    <t>[bloht]</t>
+  </si>
+  <si>
+    <t>something bloated, distended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[koun-ter-pahrt] </t>
+  </si>
+  <si>
+    <t>a person or thing closely resembling another, especially in function, a copy, duplicate, one of two parts that fit, complete one another</t>
+  </si>
+  <si>
+    <t>not a verb !</t>
+  </si>
+  <si>
+    <t>homologues</t>
+  </si>
+  <si>
+    <t>préjugé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bahy-uh s] </t>
+  </si>
+  <si>
+    <t>a particular tendency, trend, opinion</t>
+  </si>
+  <si>
+    <t>[en-dev-er]</t>
+  </si>
+  <si>
+    <t>effort, attempt</t>
+  </si>
+  <si>
+    <t>dans le secteur</t>
+  </si>
+  <si>
+    <t>across an entire district</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +844,14 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -373,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -384,7 +930,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -396,27 +948,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <border>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -439,6 +981,13 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -447,20 +996,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7">
   <autoFilter ref="A1:F1048576"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="WORD" dataDxfId="6"/>
-    <tableColumn id="2" name="PART OF SPEECH" dataDxfId="5"/>
-    <tableColumn id="3" name="STRESS" dataDxfId="4"/>
-    <tableColumn id="4" name="DEFINITION" dataDxfId="3"/>
-    <tableColumn id="5" name="TRANSLATION" dataDxfId="2"/>
-    <tableColumn id="6" name="COMMENT" dataDxfId="1"/>
+    <tableColumn id="1" name="WORD" dataDxfId="5"/>
+    <tableColumn id="2" name="PART OF SPEECH" dataDxfId="4"/>
+    <tableColumn id="3" name="STRESS" dataDxfId="3"/>
+    <tableColumn id="4" name="DEFINITION" dataDxfId="2"/>
+    <tableColumn id="5" name="TRANSLATION" dataDxfId="1"/>
+    <tableColumn id="6" name="COMMENT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -509,7 +1061,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -544,7 +1096,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -756,7 +1308,7 @@
   <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +1317,7 @@
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
@@ -809,7 +1361,7 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -832,9 +1384,9 @@
       <c r="F3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -853,7 +1405,7 @@
       <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -874,7 +1426,7 @@
       <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -895,779 +1447,1412 @@
       <c r="F6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="73.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="121.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="72.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="F15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="115.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="G16" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="F31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="93" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G47" s="9"/>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G52" s="9"/>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G64" s="8"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G65" s="8"/>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G66" s="8"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G67" s="9"/>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G68" s="8"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G69" s="8"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G70" s="8"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G71" s="8"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G72" s="9"/>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G73" s="8"/>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G74" s="8"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G75" s="8"/>
+      <c r="G75" s="4"/>
     </row>
     <row r="76" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G76" s="8"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G77" s="9"/>
+      <c r="G77" s="5"/>
     </row>
     <row r="78" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G78" s="8"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G79" s="8"/>
+      <c r="G79" s="4"/>
     </row>
     <row r="80" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G80" s="8"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G81" s="8"/>
+      <c r="G81" s="4"/>
     </row>
     <row r="82" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G82" s="9"/>
+      <c r="G82" s="5"/>
     </row>
     <row r="83" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G83" s="8"/>
+      <c r="G83" s="4"/>
     </row>
     <row r="84" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G84" s="8"/>
+      <c r="G84" s="4"/>
     </row>
     <row r="85" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G85" s="8"/>
+      <c r="G85" s="4"/>
     </row>
     <row r="86" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G86" s="8"/>
+      <c r="G86" s="4"/>
     </row>
     <row r="87" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G87" s="9"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G88" s="8"/>
+      <c r="G88" s="4"/>
     </row>
     <row r="89" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G89" s="8"/>
+      <c r="G89" s="4"/>
     </row>
     <row r="90" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G90" s="8"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G91" s="8"/>
+      <c r="G91" s="4"/>
     </row>
     <row r="92" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G92" s="9"/>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G93" s="8"/>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G94" s="8"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G95" s="8"/>
+      <c r="G95" s="4"/>
     </row>
     <row r="96" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G96" s="8"/>
+      <c r="G96" s="4"/>
     </row>
     <row r="97" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G97" s="9"/>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G98" s="8"/>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G99" s="8"/>
+      <c r="G99" s="4"/>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G100" s="8"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G101" s="8"/>
+      <c r="G101" s="4"/>
     </row>
     <row r="102" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G102" s="9"/>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G103" s="8"/>
+      <c r="G103" s="4"/>
     </row>
     <row r="104" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G104" s="8"/>
+      <c r="G104" s="4"/>
     </row>
     <row r="105" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G105" s="8"/>
+      <c r="G105" s="4"/>
     </row>
     <row r="106" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G106" s="8"/>
+      <c r="G106" s="4"/>
     </row>
     <row r="107" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G107" s="9"/>
+      <c r="G107" s="5"/>
     </row>
     <row r="108" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G108" s="8"/>
+      <c r="G108" s="4"/>
     </row>
     <row r="109" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G109" s="8"/>
+      <c r="G109" s="4"/>
     </row>
     <row r="110" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G110" s="8"/>
+      <c r="G110" s="4"/>
     </row>
     <row r="111" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G111" s="8"/>
+      <c r="G111" s="4"/>
     </row>
     <row r="112" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G112" s="9"/>
+      <c r="G112" s="5"/>
     </row>
     <row r="113" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G113" s="8"/>
+      <c r="G113" s="4"/>
     </row>
     <row r="114" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G114" s="8"/>
+      <c r="G114" s="4"/>
     </row>
     <row r="115" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G115" s="8"/>
+      <c r="G115" s="4"/>
     </row>
     <row r="116" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G116" s="8"/>
+      <c r="G116" s="4"/>
     </row>
     <row r="117" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G117" s="9"/>
+      <c r="G117" s="5"/>
     </row>
     <row r="118" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G118" s="8"/>
+      <c r="G118" s="4"/>
     </row>
     <row r="119" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G119" s="8"/>
+      <c r="G119" s="4"/>
     </row>
     <row r="120" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G120" s="8"/>
+      <c r="G120" s="4"/>
     </row>
     <row r="121" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G121" s="8"/>
+      <c r="G121" s="4"/>
     </row>
     <row r="122" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G122" s="9"/>
+      <c r="G122" s="5"/>
     </row>
     <row r="123" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G123" s="8"/>
+      <c r="G123" s="4"/>
     </row>
     <row r="124" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G124" s="8"/>
+      <c r="G124" s="4"/>
     </row>
     <row r="125" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G125" s="8"/>
+      <c r="G125" s="4"/>
     </row>
     <row r="126" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G126" s="8"/>
+      <c r="G126" s="4"/>
     </row>
     <row r="127" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G127" s="9"/>
+      <c r="G127" s="5"/>
     </row>
     <row r="128" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G128" s="8"/>
+      <c r="G128" s="4"/>
     </row>
     <row r="129" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G129" s="8"/>
+      <c r="G129" s="4"/>
     </row>
     <row r="130" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G130" s="8"/>
+      <c r="G130" s="4"/>
     </row>
     <row r="131" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G131" s="8"/>
+      <c r="G131" s="4"/>
     </row>
     <row r="132" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G132" s="9"/>
+      <c r="G132" s="5"/>
     </row>
     <row r="133" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G133" s="8"/>
+      <c r="G133" s="4"/>
     </row>
     <row r="134" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G134" s="8"/>
+      <c r="G134" s="4"/>
     </row>
     <row r="135" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G135" s="8"/>
+      <c r="G135" s="4"/>
     </row>
     <row r="136" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G136" s="8"/>
+      <c r="G136" s="4"/>
     </row>
     <row r="137" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G137" s="9"/>
+      <c r="G137" s="5"/>
     </row>
     <row r="138" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G138" s="8"/>
+      <c r="G138" s="4"/>
     </row>
     <row r="139" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G139" s="8"/>
+      <c r="G139" s="4"/>
     </row>
     <row r="140" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G140" s="8"/>
+      <c r="G140" s="4"/>
     </row>
     <row r="141" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G141" s="8"/>
+      <c r="G141" s="4"/>
     </row>
     <row r="142" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G142" s="9"/>
+      <c r="G142" s="5"/>
     </row>
     <row r="143" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G143" s="8"/>
+      <c r="G143" s="4"/>
     </row>
     <row r="144" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G144" s="8"/>
+      <c r="G144" s="4"/>
     </row>
     <row r="145" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G145" s="8"/>
+      <c r="G145" s="4"/>
     </row>
     <row r="146" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G146" s="8"/>
+      <c r="G146" s="4"/>
     </row>
     <row r="147" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G147" s="9"/>
+      <c r="G147" s="5"/>
     </row>
     <row r="148" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G148" s="8"/>
+      <c r="G148" s="4"/>
     </row>
     <row r="149" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G149" s="8"/>
+      <c r="G149" s="4"/>
     </row>
     <row r="150" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G150" s="8"/>
+      <c r="G150" s="4"/>
     </row>
     <row r="151" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G151" s="8"/>
+      <c r="G151" s="4"/>
     </row>
     <row r="152" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G152" s="9"/>
+      <c r="G152" s="5"/>
     </row>
     <row r="153" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G153" s="8"/>
+      <c r="G153" s="4"/>
     </row>
     <row r="154" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G154" s="8"/>
+      <c r="G154" s="4"/>
     </row>
     <row r="155" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G155" s="8"/>
+      <c r="G155" s="4"/>
     </row>
     <row r="156" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G156" s="8"/>
+      <c r="G156" s="4"/>
     </row>
     <row r="157" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G157" s="9"/>
+      <c r="G157" s="5"/>
     </row>
     <row r="158" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G158" s="8"/>
+      <c r="G158" s="4"/>
     </row>
     <row r="159" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G159" s="8"/>
+      <c r="G159" s="4"/>
     </row>
     <row r="160" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G160" s="8"/>
+      <c r="G160" s="4"/>
     </row>
     <row r="161" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G161" s="8"/>
+      <c r="G161" s="4"/>
     </row>
     <row r="162" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G162" s="9"/>
+      <c r="G162" s="5"/>
     </row>
     <row r="163" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G163" s="8"/>
+      <c r="G163" s="4"/>
     </row>
     <row r="164" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G164" s="8"/>
+      <c r="G164" s="4"/>
     </row>
     <row r="165" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G165" s="8"/>
+      <c r="G165" s="4"/>
     </row>
     <row r="166" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G166" s="8"/>
+      <c r="G166" s="4"/>
     </row>
     <row r="167" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G167" s="9"/>
+      <c r="G167" s="5"/>
     </row>
     <row r="168" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G168" s="8"/>
+      <c r="G168" s="4"/>
     </row>
     <row r="169" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G169" s="8"/>
+      <c r="G169" s="4"/>
     </row>
     <row r="170" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G170" s="8"/>
+      <c r="G170" s="4"/>
     </row>
     <row r="171" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G171" s="8"/>
+      <c r="G171" s="4"/>
     </row>
     <row r="172" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G172" s="9"/>
+      <c r="G172" s="5"/>
     </row>
     <row r="173" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G173" s="8"/>
+      <c r="G173" s="4"/>
     </row>
     <row r="174" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G174" s="8"/>
+      <c r="G174" s="4"/>
     </row>
     <row r="175" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G175" s="8"/>
+      <c r="G175" s="4"/>
     </row>
     <row r="176" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G176" s="8"/>
+      <c r="G176" s="4"/>
     </row>
     <row r="177" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G177" s="9"/>
+      <c r="G177" s="5"/>
     </row>
     <row r="178" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G178" s="8"/>
+      <c r="G178" s="4"/>
     </row>
     <row r="179" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G179" s="8"/>
+      <c r="G179" s="4"/>
     </row>
     <row r="180" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G180" s="8"/>
+      <c r="G180" s="4"/>
     </row>
     <row r="181" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G181" s="8"/>
+      <c r="G181" s="4"/>
     </row>
     <row r="182" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G182" s="9"/>
+      <c r="G182" s="5"/>
     </row>
     <row r="183" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G183" s="8"/>
+      <c r="G183" s="4"/>
     </row>
     <row r="184" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G184" s="8"/>
+      <c r="G184" s="4"/>
     </row>
     <row r="185" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G185" s="8"/>
+      <c r="G185" s="4"/>
     </row>
     <row r="186" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G186" s="8"/>
+      <c r="G186" s="4"/>
     </row>
     <row r="187" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G187" s="9"/>
+      <c r="G187" s="5"/>
     </row>
     <row r="188" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G188" s="8"/>
+      <c r="G188" s="4"/>
     </row>
     <row r="189" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G189" s="8"/>
+      <c r="G189" s="4"/>
     </row>
     <row r="190" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G190" s="8"/>
+      <c r="G190" s="4"/>
     </row>
     <row r="191" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G191" s="8"/>
+      <c r="G191" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G32:G52"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G31"/>
-    <mergeCell ref="G2:G6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>

--- a/ENGLISH/READING FILE/RAPPORT/Vocabulary.xlsx
+++ b/ENGLISH/READING FILE/RAPPORT/Vocabulary.xlsx
@@ -886,7 +886,18 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
@@ -895,24 +906,13 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -936,23 +936,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1307,17 +1307,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
@@ -1361,7 +1361,7 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       <c r="F3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1405,7 +1405,7 @@
       <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1426,7 +1426,7 @@
       <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1468,7 +1468,7 @@
       <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       <c r="F8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1512,7 +1512,7 @@
       <c r="F9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="121.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1533,7 +1533,7 @@
       <c r="F10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>134</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1577,7 +1577,7 @@
       <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1600,7 +1600,7 @@
       <c r="F13" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1621,7 +1621,7 @@
       <c r="F14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       <c r="F16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       <c r="F17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1709,7 +1709,7 @@
       <c r="F18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1730,7 +1730,7 @@
       <c r="F19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1751,7 +1751,7 @@
       <c r="F20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1772,7 +1772,7 @@
       <c r="F21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1793,7 +1793,7 @@
       <c r="F22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1814,7 +1814,7 @@
       <c r="F23" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1835,7 +1835,7 @@
       <c r="F24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1856,7 +1856,7 @@
       <c r="F25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1877,7 +1877,7 @@
       <c r="F26" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G26" s="10"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1898,7 +1898,7 @@
       <c r="F27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="10"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1919,7 +1919,7 @@
       <c r="F28" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G28" s="10"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1940,7 +1940,7 @@
       <c r="F29" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1961,7 +1961,7 @@
       <c r="F30" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G30" s="10"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
@@ -2003,7 +2003,7 @@
       <c r="F32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       <c r="F33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2047,7 +2047,7 @@
       <c r="F34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -2068,7 +2068,7 @@
       <c r="F35" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2089,7 +2089,7 @@
       <c r="F36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -2110,7 +2110,7 @@
       <c r="F37" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -2131,7 +2131,7 @@
       <c r="F38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -2152,7 +2152,7 @@
       <c r="F39" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -2173,7 +2173,7 @@
       <c r="F40" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -2194,7 +2194,7 @@
       <c r="F41" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -2215,7 +2215,7 @@
       <c r="F42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -2236,7 +2236,7 @@
       <c r="F43" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -2257,7 +2257,7 @@
       <c r="F44" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -2278,7 +2278,7 @@
       <c r="F45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -2299,7 +2299,7 @@
       <c r="F46" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -2320,7 +2320,7 @@
       <c r="F47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -2341,7 +2341,7 @@
       <c r="F48" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -2362,7 +2362,7 @@
       <c r="F49" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -2383,7 +2383,7 @@
       <c r="F50" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -2404,7 +2404,7 @@
       <c r="F51" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
@@ -2425,7 +2425,7 @@
       <c r="F52" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G52" s="8"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G53" s="4"/>
